--- a/Отчеты/OLAP отчет для Пирожных 09.03.2023 09.33.01.xlsx
+++ b/Отчеты/OLAP отчет для Пирожных 09.03.2023 09.33.01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB603AF-3524-4814-80EB-6E02BA3EA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A26C98-97FC-47DF-AB48-F1834836C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
     <t>Кекс Цитрусовый</t>
   </si>
   <si>
-    <t>02999</t>
-  </si>
-  <si>
     <t>Десерт Тирамису классич.</t>
+  </si>
+  <si>
+    <t>03718</t>
   </si>
 </sst>
 </file>
@@ -489,20 +489,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,8 +790,8 @@
   </sheetPr>
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,43 +807,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -860,10 +860,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,10 +873,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -945,10 +945,10 @@
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>80</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2">
         <v>71</v>
       </c>
@@ -958,10 +958,10 @@
       <c r="H6" s="2">
         <v>29</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>200</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="2">
         <v>61</v>
       </c>
@@ -1030,10 +1030,10 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>29</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2">
         <v>19</v>
       </c>
@@ -1043,10 +1043,10 @@
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>21</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="2">
         <v>21</v>
       </c>
@@ -1113,10 +1113,10 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>71</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2">
         <v>86</v>
       </c>
@@ -1126,10 +1126,10 @@
       <c r="H8" s="2">
         <v>48</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>176</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2">
         <v>39</v>
       </c>
@@ -1196,10 +1196,10 @@
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>178</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2">
         <v>428</v>
       </c>
@@ -1209,10 +1209,10 @@
       <c r="H9" s="2">
         <v>162</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>397</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="2">
         <v>195</v>
       </c>
@@ -1281,10 +1281,10 @@
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>118</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2">
         <v>127</v>
       </c>
@@ -1294,10 +1294,10 @@
       <c r="H10" s="2">
         <v>111</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>281</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="2">
         <v>112</v>
       </c>
@@ -1366,10 +1366,10 @@
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>119</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2">
         <v>114</v>
       </c>
@@ -1379,10 +1379,10 @@
       <c r="H11" s="2">
         <v>94</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>223</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="2">
         <v>137</v>
       </c>
@@ -1451,10 +1451,10 @@
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>26</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2">
         <v>30</v>
       </c>
@@ -1464,10 +1464,10 @@
       <c r="H12" s="2">
         <v>26</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>33</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="2">
         <v>23</v>
       </c>
@@ -1534,10 +1534,10 @@
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>86</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2">
         <v>70</v>
       </c>
@@ -1547,10 +1547,10 @@
       <c r="H13" s="2">
         <v>62</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>75</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="2">
         <v>72</v>
       </c>
@@ -1619,10 +1619,10 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>76</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2">
         <v>81</v>
       </c>
@@ -1632,10 +1632,10 @@
       <c r="H14" s="2">
         <v>72</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>173</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2">
         <v>42</v>
       </c>
@@ -1702,10 +1702,10 @@
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>15</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2">
         <v>11</v>
       </c>
@@ -1715,10 +1715,10 @@
       <c r="H15" s="2">
         <v>16</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>35</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="2">
         <v>16</v>
       </c>
@@ -1783,10 +1783,10 @@
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>41</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2">
         <v>35</v>
       </c>
@@ -1796,10 +1796,10 @@
       <c r="H16" s="2">
         <v>41</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>42</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="2">
         <v>48</v>
       </c>
@@ -1866,10 +1866,10 @@
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>136</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2">
         <v>209</v>
       </c>
@@ -1879,10 +1879,10 @@
       <c r="H17" s="2">
         <v>130</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>354</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="2">
         <v>140</v>
       </c>
@@ -1951,10 +1951,10 @@
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>67</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2">
         <v>49</v>
       </c>
@@ -1964,10 +1964,10 @@
       <c r="H18" s="2">
         <v>53</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>80</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="2">
         <v>39</v>
       </c>
@@ -2036,10 +2036,10 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>80</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2">
         <v>114</v>
       </c>
@@ -2049,10 +2049,10 @@
       <c r="H19" s="2">
         <v>60</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>177</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="2">
         <v>57</v>
       </c>
@@ -2121,10 +2121,10 @@
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>221</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2">
         <v>225</v>
       </c>
@@ -2134,10 +2134,10 @@
       <c r="H20" s="2">
         <v>185</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>243</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="2">
         <v>175</v>
       </c>
@@ -2206,10 +2206,10 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>72</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2">
         <v>50</v>
       </c>
@@ -2219,10 +2219,10 @@
       <c r="H21" s="2">
         <v>102</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>175</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="2">
         <v>53</v>
       </c>
@@ -2291,10 +2291,10 @@
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>47</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2">
         <v>47</v>
       </c>
@@ -2304,10 +2304,10 @@
       <c r="H22" s="2">
         <v>33</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>92</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="2">
         <v>40</v>
       </c>
@@ -2376,10 +2376,10 @@
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>13</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2">
         <v>22</v>
       </c>
@@ -2389,10 +2389,10 @@
       <c r="H23" s="2">
         <v>14</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>36</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="2">
         <v>21</v>
       </c>
@@ -2461,10 +2461,10 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>33</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2">
         <v>31</v>
       </c>
@@ -2474,10 +2474,10 @@
       <c r="H24" s="2">
         <v>24</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>33</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="2">
         <v>39</v>
       </c>
@@ -2544,10 +2544,10 @@
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>49</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2">
         <v>79</v>
       </c>
@@ -2557,10 +2557,10 @@
       <c r="H25" s="2">
         <v>49</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>106</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="2">
         <v>50</v>
       </c>
@@ -2629,10 +2629,10 @@
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>75</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2">
         <v>71</v>
       </c>
@@ -2642,10 +2642,10 @@
       <c r="H26" s="2">
         <v>49</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>152</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="2">
         <v>47</v>
       </c>
@@ -2714,10 +2714,10 @@
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>42</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2">
         <v>55</v>
       </c>
@@ -2727,10 +2727,10 @@
       <c r="H27" s="2">
         <v>41</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>73</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="2">
         <v>29</v>
       </c>
@@ -2799,10 +2799,10 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>39</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2">
         <v>42</v>
       </c>
@@ -2812,10 +2812,10 @@
       <c r="H28" s="2">
         <v>24</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>54</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="2">
         <v>30</v>
       </c>
@@ -2884,10 +2884,10 @@
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>28</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2">
         <v>76</v>
       </c>
@@ -2897,10 +2897,10 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>46</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="2">
         <v>27</v>
       </c>
@@ -2969,10 +2969,10 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2">
         <v>24</v>
       </c>
@@ -2982,10 +2982,10 @@
       <c r="H30" s="2">
         <v>25</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>39</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="2">
         <v>33</v>
       </c>
@@ -3046,10 +3046,10 @@
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>53</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="2">
         <v>93</v>
       </c>
@@ -3059,10 +3059,10 @@
       <c r="H31" s="2">
         <v>55</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>121</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="2">
         <v>50</v>
       </c>
@@ -3131,10 +3131,10 @@
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>14</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2">
         <v>32</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="H32" s="2">
         <v>17</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>32</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="2">
         <v>20</v>
       </c>
@@ -3216,10 +3216,10 @@
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>55</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="2">
         <v>74</v>
       </c>
@@ -3229,10 +3229,10 @@
       <c r="H33" s="2">
         <v>49</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>69</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="2">
         <v>48</v>
       </c>
@@ -3301,10 +3301,10 @@
       <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>9</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="2">
         <v>18</v>
       </c>
@@ -3314,10 +3314,10 @@
       <c r="H34" s="2">
         <v>9</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>28</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="2">
         <v>5</v>
       </c>
@@ -3386,10 +3386,10 @@
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>13</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2">
         <v>22</v>
       </c>
@@ -3399,10 +3399,10 @@
       <c r="H35" s="2">
         <v>13</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>28</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="2">
         <v>8</v>
       </c>
@@ -3471,10 +3471,10 @@
       <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>17</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2">
         <v>41</v>
       </c>
@@ -3484,10 +3484,10 @@
       <c r="H36" s="2">
         <v>31</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>35</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="2">
         <v>41</v>
       </c>
@@ -3556,10 +3556,10 @@
       <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>12</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2">
         <v>27</v>
       </c>
@@ -3569,10 +3569,10 @@
       <c r="H37" s="2">
         <v>12</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>45</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="2">
         <v>11</v>
       </c>
@@ -3641,10 +3641,10 @@
       <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>16</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2">
         <v>51</v>
       </c>
@@ -3654,10 +3654,10 @@
       <c r="H38" s="2">
         <v>20</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>92</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="2">
         <v>18</v>
       </c>
@@ -3726,10 +3726,10 @@
       <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>17</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="2">
         <v>57</v>
       </c>
@@ -3739,10 +3739,10 @@
       <c r="H39" s="2">
         <v>20</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>125</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="2">
         <v>26</v>
       </c>
@@ -3809,10 +3809,10 @@
       <c r="C40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>9</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2">
         <v>3</v>
       </c>
@@ -3822,10 +3822,10 @@
       <c r="H40" s="2">
         <v>2</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>8</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="2">
         <v>2</v>
       </c>
@@ -3888,10 +3888,10 @@
       <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>52</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="2">
         <v>87</v>
       </c>
@@ -3901,10 +3901,10 @@
       <c r="H41" s="2">
         <v>61</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>107</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="2">
         <v>64</v>
       </c>
@@ -3973,10 +3973,10 @@
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>27</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2">
         <v>30</v>
       </c>
@@ -3986,10 +3986,10 @@
       <c r="H42" s="2">
         <v>32</v>
       </c>
-      <c r="I42" s="7">
-        <v>38</v>
-      </c>
-      <c r="J42" s="7"/>
+      <c r="I42" s="6">
+        <v>38</v>
+      </c>
+      <c r="J42" s="6"/>
       <c r="K42" s="2">
         <v>31</v>
       </c>
@@ -4058,10 +4058,10 @@
       <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>145</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="2">
         <v>159</v>
       </c>
@@ -4071,10 +4071,10 @@
       <c r="H43" s="2">
         <v>57</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>347</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="2">
         <v>99</v>
       </c>
@@ -4143,10 +4143,10 @@
       <c r="C44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>19</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="2">
         <v>11</v>
       </c>
@@ -4156,10 +4156,10 @@
       <c r="H44" s="2">
         <v>18</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>27</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="2">
         <v>15</v>
       </c>
@@ -4228,10 +4228,10 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>46</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="2">
         <v>54</v>
       </c>
@@ -4241,10 +4241,10 @@
       <c r="H45" s="2">
         <v>33</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>98</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="2">
         <v>36</v>
       </c>
@@ -4313,10 +4313,10 @@
       <c r="C46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>96</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="2">
         <v>60</v>
       </c>
@@ -4326,10 +4326,10 @@
       <c r="H46" s="2">
         <v>50</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>186</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="2">
         <v>64</v>
       </c>
@@ -4388,18 +4388,18 @@
     </row>
     <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>33</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="2">
         <v>26</v>
       </c>
@@ -4409,10 +4409,10 @@
       <c r="H47" s="2">
         <v>17</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>82</v>
       </c>
-      <c r="J47" s="7"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="2">
         <v>15</v>
       </c>
@@ -4472,15 +4472,15 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="8">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5">
         <v>2405</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="3">
         <v>3011</v>
       </c>
@@ -4490,10 +4490,10 @@
       <c r="H48" s="3">
         <v>1997</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="5">
         <v>4784</v>
       </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="3">
         <v>2099</v>
       </c>
@@ -4554,6 +4554,89 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="I48:J48"/>
@@ -4563,89 +4646,6 @@
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
